--- a/magnetic hystersis/磁滯曲線.xlsx
+++ b/magnetic hystersis/磁滯曲線.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HENNING\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02c8cc13a3ad45b4/桌面/台大電機/普物實驗/physics_exp/magnetic hystersis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E26F93-1917-47B8-BD2C-38B0C2076935}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D3E26F93-1917-47B8-BD2C-38B0C2076935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{CB9BEDA8-5D51-4BBB-9F81-D2692362966B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3AEAD333-2319-4338-BD50-FC358E8A516D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{3AEAD333-2319-4338-BD50-FC358E8A516D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>線圈電流I(A)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,19 +247,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>I</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW"/>
-              <a:t>與</a:t>
+              <a:t>I-</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="el-GR"/>
               <a:t>θ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW"/>
-              <a:t>關係圖</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3004,6 +2996,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW">
+                    <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                  </a:rPr>
+                  <a:t>θ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3066,6 +3117,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>I</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3191,27 +3303,7 @@
                 <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
               </a:rPr>
-              <a:t>I</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>與</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>tan(</a:t>
+              <a:t>I-tan(</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="el-GR" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -3233,23 +3325,6 @@
               </a:rPr>
               <a:t>)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>關係圖</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-TW">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4384,6 +4459,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>I(A)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4446,6 +4577,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>tan</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="zh-TW">
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                  </a:rPr>
+                  <a:t>θ</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6027,24 +6220,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14FF709-1B32-4278-B57F-16466FF7D3EA}">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="135" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="14.08984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="14.109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="8.7265625" style="1"/>
-    <col min="15" max="15" width="12.7265625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5" max="14" width="8.77734375" style="1"/>
+    <col min="15" max="15" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6055,7 +6248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6075,7 +6268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -6097,7 +6290,7 @@
         <v>-3.492076949174773E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>0.2</v>
       </c>
@@ -6119,7 +6312,7 @@
         <v>0.1227845609029046</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>0.4</v>
       </c>
@@ -6141,7 +6334,7 @@
         <v>0.32491969623290629</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>0.6</v>
       </c>
@@ -6163,7 +6356,7 @@
         <v>0.55430905145276899</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>0.8</v>
       </c>
@@ -6185,7 +6378,7 @@
         <v>0.83909963117727993</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -6207,7 +6400,7 @@
         <v>1.1106125148291928</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1.2</v>
       </c>
@@ -6229,7 +6422,7 @@
         <v>1.4281480067421144</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1.4</v>
       </c>
@@ -6251,7 +6444,7 @@
         <v>1.7320508075688767</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>1.6</v>
       </c>
@@ -6273,7 +6466,7 @@
         <v>1.9626105055051504</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>1.8</v>
       </c>
@@ -6295,7 +6488,7 @@
         <v>2.1445069205095586</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -6317,7 +6510,7 @@
         <v>2.4750868534162964</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -6339,7 +6532,7 @@
         <v>2.9042108776758222</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>2.4</v>
       </c>
@@ -6361,7 +6554,7 @@
         <v>3.0776835371752527</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>2.6</v>
       </c>
@@ -6383,7 +6576,7 @@
         <v>3.2708526184841404</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>2.8</v>
       </c>
@@ -6405,7 +6598,7 @@
         <v>3.7320508075688776</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>3</v>
       </c>
@@ -6427,7 +6620,7 @@
         <v>4.010780933535842</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>3.2</v>
       </c>
@@ -6449,7 +6642,7 @@
         <v>4.3314758742841573</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>3</v>
       </c>
@@ -6471,7 +6664,7 @@
         <v>4.010780933535842</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>2.8</v>
       </c>
@@ -6493,7 +6686,7 @@
         <v>4.010780933535842</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>2.6</v>
       </c>
@@ -6515,7 +6708,7 @@
         <v>3.7320508075688776</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>2.4</v>
       </c>
@@ -6537,7 +6730,7 @@
         <v>3.4874144438409087</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -6559,7 +6752,7 @@
         <v>3.2708526184841404</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>2</v>
       </c>
@@ -6581,7 +6774,7 @@
         <v>3.0776835371752527</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>1.8</v>
       </c>
@@ -6603,7 +6796,7 @@
         <v>2.9042108776758222</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>1.6</v>
       </c>
@@ -6625,7 +6818,7 @@
         <v>2.7474774194546216</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>1.4</v>
       </c>
@@ -6647,7 +6840,7 @@
         <v>2.4750868534162964</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>1.2</v>
       </c>
@@ -6669,7 +6862,7 @@
         <v>2.050303841579296</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>1</v>
       </c>
@@ -6691,7 +6884,7 @@
         <v>1.7320508075688767</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>0.8</v>
       </c>
@@ -6713,7 +6906,7 @@
         <v>1.4281480067421144</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>0.6</v>
       </c>
@@ -6735,7 +6928,7 @@
         <v>1.1503684072210094</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>0.4</v>
       </c>
@@ -6757,7 +6950,7 @@
         <v>0.86928673781622645</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>0.2</v>
       </c>
@@ -6779,7 +6972,7 @@
         <v>0.60086061902756038</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>0</v>
       </c>
@@ -6801,7 +6994,7 @@
         <v>0.36397023426620234</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>-0.2</v>
       </c>
@@ -6823,7 +7016,7 @@
         <v>0.1227845609029046</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>-0.4</v>
       </c>
@@ -6845,7 +7038,7 @@
         <v>-0.10510423526567646</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>-0.6</v>
       </c>
@@ -6867,7 +7060,7 @@
         <v>-0.32491969623290629</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>-0.8</v>
       </c>
@@ -6889,7 +7082,7 @@
         <v>-0.57735026918962573</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>-1.01</v>
       </c>
@@ -6911,7 +7104,7 @@
         <v>-0.80978403319500702</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>-1.2</v>
       </c>
@@ -6933,7 +7126,7 @@
         <v>-1.0355303137905694</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>-1.4</v>
       </c>
@@ -6955,7 +7148,7 @@
         <v>-1.2799416321930788</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>-1.6</v>
       </c>
@@ -6977,7 +7170,7 @@
         <v>-1.4825609685127403</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>-1.8</v>
       </c>
@@ -6999,7 +7192,7 @@
         <v>-1.7320508075688767</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>-2</v>
       </c>
@@ -7021,7 +7214,7 @@
         <v>-1.9626105055051504</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>-2.2000000000000002</v>
       </c>
@@ -7043,7 +7236,7 @@
         <v>-2.1445069205095586</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>-2.4</v>
       </c>
@@ -7065,7 +7258,7 @@
         <v>-2.3558523658237518</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>-2.6</v>
       </c>
@@ -7087,7 +7280,7 @@
         <v>-2.6050890646938005</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>-2.80000000000001</v>
       </c>
@@ -7109,7 +7302,7 @@
         <v>-2.7474774194546216</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>-3.0000000000000102</v>
       </c>
@@ -7131,7 +7324,7 @@
         <v>-2.9042108776758222</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>-3.2000000000000099</v>
       </c>
@@ -7153,7 +7346,7 @@
         <v>-3.0776835371752527</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>-3</v>
       </c>
@@ -7175,7 +7368,7 @@
         <v>-2.9042108776758222</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>-2.7999999999999901</v>
       </c>
@@ -7197,7 +7390,7 @@
         <v>-2.9042108776758222</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>-2.5999999999999801</v>
       </c>
@@ -7219,7 +7412,7 @@
         <v>-2.7474774194546216</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>-2.3999999999999702</v>
       </c>
@@ -7241,7 +7434,7 @@
         <v>-2.7474774194546216</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>-2.1999999999999602</v>
       </c>
@@ -7263,7 +7456,7 @@
         <v>-2.4750868534162964</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>-1.99999999999995</v>
       </c>
@@ -7285,7 +7478,7 @@
         <v>-2.3558523658237518</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <v>-1.7999999999999401</v>
       </c>
@@ -7307,7 +7500,7 @@
         <v>-2.2460367739042164</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>-1.5999999999999299</v>
       </c>
@@ -7329,7 +7522,7 @@
         <v>-2.1445069205095586</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>-1.39999999999992</v>
       </c>
@@ -7351,7 +7544,7 @@
         <v>-1.8040477552714236</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>-1.19999999999991</v>
       </c>
@@ -7373,7 +7566,7 @@
         <v>-1.6642794823505174</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
         <v>-0.99999999999989997</v>
       </c>
@@ -7395,7 +7588,7 @@
         <v>-1.4825609685127403</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>-0.79999999999989002</v>
       </c>
@@ -7417,7 +7610,7 @@
         <v>-1.2348971565350511</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
         <v>-0.59999999999987996</v>
       </c>
@@ -7439,7 +7632,7 @@
         <v>-0.99999999999999989</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
         <v>-0.39999999999987002</v>
       </c>
@@ -7461,7 +7654,7 @@
         <v>-0.75355405010279419</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
         <v>-0.19999999999986001</v>
       </c>
@@ -7483,7 +7676,7 @@
         <v>-0.48773258856586144</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
         <v>1.5010215292932099E-13</v>
       </c>
@@ -7505,7 +7698,7 @@
         <v>-0.28674538575880792</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
         <v>0.20000000000015999</v>
       </c>
@@ -7527,7 +7720,7 @@
         <v>-5.2407779283041196E-2</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
         <v>0.40000000000017</v>
       </c>
@@ -7549,7 +7742,7 @@
         <v>0.17632698070846498</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
         <v>0.60000000000017994</v>
       </c>
@@ -7571,7 +7764,7 @@
         <v>0.40402622583515679</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
         <v>0.80000000000019</v>
       </c>
@@ -7593,7 +7786,7 @@
         <v>0.67450851684242674</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
         <v>1.0000000000002001</v>
       </c>
@@ -7615,7 +7808,7 @@
         <v>0.93251508613766154</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <v>1.20000000000021</v>
       </c>
@@ -7637,7 +7830,7 @@
         <v>1.2348971565350511</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
         <v>1.40000000000022</v>
       </c>
@@ -7659,7 +7852,7 @@
         <v>1.5398649638145827</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B75" s="3">
         <v>1.6000000000002299</v>
       </c>
@@ -7681,7 +7874,7 @@
         <v>1.8807264653463318</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" s="3">
         <v>1.8000000000002401</v>
       </c>
@@ -7703,7 +7896,7 @@
         <v>2.1445069205095586</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B77" s="3">
         <v>2.00000000000025</v>
       </c>
@@ -7725,7 +7918,7 @@
         <v>2.4750868534162964</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B78" s="3">
         <v>2.20000000000026</v>
       </c>
@@ -7747,7 +7940,7 @@
         <v>2.7474774194546216</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B79" s="3">
         <v>2.4000000000002699</v>
       </c>
@@ -7769,7 +7962,7 @@
         <v>3.0776835371752527</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B80" s="3">
         <v>2.6000000000002799</v>
       </c>
@@ -7791,7 +7984,7 @@
         <v>3.2708526184841404</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B81" s="3">
         <v>2.8000000000002898</v>
       </c>
@@ -7813,7 +8006,7 @@
         <v>3.4874144438409087</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B82" s="3">
         <v>3.0000000000003002</v>
       </c>
